--- a/仕様書/追加する演出.xlsx
+++ b/仕様書/追加する演出.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2FD24E-A842-4E06-A83B-994CE7E9F487}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1845601-8731-4A43-99E1-CBCD687F8FFE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>射影機の撮影演出</t>
     <rPh sb="0" eb="2">
@@ -481,6 +481,10 @@
     <rPh sb="10" eb="11">
       <t>クズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｖ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1594,35 +1598,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:21">
       <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:21">
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:21">
       <c r="N11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="13" spans="1:21">
+      <c r="U13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="L14" s="1" t="s">
         <v>4</v>
       </c>
